--- a/verif_results/exact/datos_verificacion_softplus.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,106 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01292920112609863</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>&lt;0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04560613632202148</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="n">
+        <v>533.8923952579498</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_softplus.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,122 +434,32 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>0.05499999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E1" t="n">
-        <v>0.02632355690002441</v>
+        <v>0.01300239562988281</v>
       </c>
       <c r="F1" t="n">
-        <v>0</v>
+        <v>0.1284615993499756</v>
       </c>
       <c r="G1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>&lt;0</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05499999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01292920112609863</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04560613632202148</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mix</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" t="n">
-        <v>533.8923952579498</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>problem</t>
         </is>
       </c>
     </row>

--- a/verif_results/exact/datos_verificacion_softplus.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus.xlsx
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>0.1</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01300239562988281</v>
+        <v>0.01262879371643066</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1284615993499756</v>
+        <v>0.1152493953704834</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
@@ -459,7 +459,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>infeasible</t>
         </is>
       </c>
     </row>

--- a/verif_results/exact/datos_verificacion_softplus.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,1056 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63.08202505111694</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4056.371798992157</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>161.5433330535889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4571.727656602859</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02587699890136719</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2326641082763672</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900.0009732246399</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7459.608291864395</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>900.0008909702301</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7605.225672721863</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>900.0065822601318</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5400.16007733345</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>900.0026650428772</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8100.036649942398</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>900.0029611587524</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8100.030289411545</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05570745468139648</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3676419258117676</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>900.0006814002991</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6977.689895629883</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>900.000640630722</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7206.627679347992</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>900.0009801387787</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2700.206737041473</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>900.0010514259338</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8100.009788990021</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>900.0010559558868</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8100.010031461716</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>900.0021414756775</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8100.020209312439</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>900.001576423645</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8100.01501083374</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>900.0016932487488</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8100.015895366669</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01318001747131348</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1194643974304199</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>900.0006463527679</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8100.007061004639</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>900.0006268024445</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7763.274532318115</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>900.0010299682617</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8100.010357141495</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>900.0009636878967</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8100.010602235794</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>900.0010159015656</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8100.010786056519</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05189251899719238</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4585549831390381</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>infeasible</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05499999999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>900.0017712116241</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8100.01672744751</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
